--- a/ac_online_signin.xlsx
+++ b/ac_online_signin.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeter\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeter\OneDrive\Documents\GitHub\GA_test_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC432DE-870F-41C7-86C3-C27C70B3C092}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17976"/>
+    <workbookView xWindow="-38510" yWindow="-10770" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>TC_MFL_GAS_Google_Assistant_0041</t>
   </si>
   <si>
-    <t>Turn on the A/C to 70 degrees</t>
-  </si>
-  <si>
     <t>TC_MFL_GAS_Google_Assistant_0042</t>
   </si>
   <si>
@@ -44,9 +42,6 @@
     <t>TC_MFL_GAS_Google_Assistant_0044</t>
   </si>
   <si>
-    <t>Increase the temperature by 2 degrees Celsius"</t>
-  </si>
-  <si>
     <t>TC_MFL_GAS_Google_Assistant_0045</t>
   </si>
   <si>
@@ -56,15 +51,9 @@
     <t>TC_MFL_GAS_Google_Assistant_0046</t>
   </si>
   <si>
-    <t>What is the current temperature setting?</t>
-  </si>
-  <si>
     <t>TC_MFL_GAS_Google_Assistant_0049</t>
   </si>
   <si>
-    <t>What is the front temperature set to?</t>
-  </si>
-  <si>
     <t>TC_MFL_GAS_Google_Assistant_0050</t>
   </si>
   <si>
@@ -179,10 +168,6 @@
     <t>TC_MFL_GAS_Google_Assistant_0143</t>
   </si>
   <si>
-    <t>What is the front temperature
-set to</t>
-  </si>
-  <si>
     <t>TC_MFL_GAS_Google_Assistant_0144</t>
   </si>
   <si>
@@ -192,17 +177,9 @@
     <t>TC_MFL_GAS_Google_Assistant_0148</t>
   </si>
   <si>
-    <t>Turn on synchronized
-temperature</t>
-  </si>
-  <si>
     <t>TC_MFL_GAS_Google_Assistant_0149</t>
   </si>
   <si>
-    <t>Turn off synchronized
-temperature</t>
-  </si>
-  <si>
     <t>TC_MFL_GAS_Google_Assistant_0150</t>
   </si>
   <si>
@@ -242,23 +219,12 @@
     <t>TC_MFL_GAS_Google_Assistant_0166</t>
   </si>
   <si>
-    <t>Turn on the A/C</t>
-  </si>
-  <si>
     <t>TC_MFL_GAS_Google_Assistant_0169</t>
   </si>
   <si>
-    <t>Set the driver temperature to 72
-degrees</t>
-  </si>
-  <si>
     <t>TC_MFL_GAS_Google_Assistant_0171</t>
   </si>
   <si>
-    <t>Set the passenger temperature to 72
-degrees</t>
-  </si>
-  <si>
     <t>TC_MFL_GAS_Google_Assistant_0172</t>
   </si>
   <si>
@@ -268,15 +234,9 @@
     <t>TC_MFL_GAS_Google_Assistant_0181</t>
   </si>
   <si>
-    <t>Air on windshield</t>
-  </si>
-  <si>
     <t>TC_MFL_GAS_Google_Assistant_0183</t>
   </si>
   <si>
-    <t>Air on feet</t>
-  </si>
-  <si>
     <t>TC_MFL_GAS_Google_Assistant_0185</t>
   </si>
   <si>
@@ -311,12 +271,33 @@
   </si>
   <si>
     <t>set Temperature To Low</t>
+  </si>
+  <si>
+    <t>Turn on the AC to 70 degrees</t>
+  </si>
+  <si>
+    <t>What is the front temperature set to</t>
+  </si>
+  <si>
+    <t>Turn on the AC</t>
+  </si>
+  <si>
+    <t>Set the driver temperature to 72 degrees</t>
+  </si>
+  <si>
+    <t>Set the passenger temperature to 72 degrees</t>
+  </si>
+  <si>
+    <t>A I R on windshield</t>
+  </si>
+  <si>
+    <t>A I R on feet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,11 +626,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,460 +638,460 @@
     <col min="1" max="2" width="64.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
